--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3968.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3968.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177239107442592</v>
+        <v>2.228358268737793</v>
       </c>
       <c r="B1">
-        <v>2.213389003354925</v>
+        <v>2.433889389038086</v>
       </c>
       <c r="C1">
-        <v>5.732673329495136</v>
+        <v>2.344024896621704</v>
       </c>
       <c r="D1">
-        <v>3.535877627237086</v>
+        <v>2.666018486022949</v>
       </c>
       <c r="E1">
-        <v>1.444170459537531</v>
+        <v>0.457331120967865</v>
       </c>
     </row>
   </sheetData>
